--- a/data/trans_dic/MCS12_SP_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.5262771787583004</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4285536409917842</v>
+        <v>0.4285536409917843</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3425250771999013</v>
+        <v>0.3424666239393925</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4574365790620971</v>
+        <v>0.4547852348342208</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.449795865688449</v>
+        <v>0.4488457316052835</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3483004306764148</v>
+        <v>0.3491142100790137</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4390571587610991</v>
+        <v>0.4407749267072587</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6240875174185048</v>
+        <v>0.6270104934932325</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5295442918067267</v>
+        <v>0.5265434486709831</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4384181686298015</v>
+        <v>0.440513838445658</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4034713410160874</v>
+        <v>0.4025810753554711</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5530222141398879</v>
+        <v>0.55325225565629</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5002304586990204</v>
+        <v>0.5009905146800738</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4045237439727158</v>
+        <v>0.4039701776025151</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.41387727367895</v>
+        <v>0.4152050223562615</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5332219180251099</v>
+        <v>0.5355063380591981</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5256738194336446</v>
+        <v>0.5273637620068388</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4231809703993504</v>
+        <v>0.4248700410540701</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5126205217434993</v>
+        <v>0.5124026639835506</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6979294385680298</v>
+        <v>0.6989967079401296</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6059329490767031</v>
+        <v>0.6000811538222868</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5018612532127684</v>
+        <v>0.5012109527418229</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4562878354814107</v>
+        <v>0.4552824056622429</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6068225836572355</v>
+        <v>0.6073089188808168</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5538155867456315</v>
+        <v>0.5565314177768129</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4537561523712338</v>
+        <v>0.4542698820743463</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4651151411535677</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4186332199785791</v>
+        <v>0.4186332199785792</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.564437085011904</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3973317750968516</v>
+        <v>0.3967534819840403</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4480632786423524</v>
+        <v>0.4493825100484472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4331173283675007</v>
+        <v>0.4305514371017609</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3875974526618904</v>
+        <v>0.3846396866336005</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5334735975511233</v>
+        <v>0.5320374478324864</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5489601222808698</v>
+        <v>0.5492840798214456</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5087775754457292</v>
+        <v>0.5080707570322589</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4646826125816065</v>
+        <v>0.4632932875785021</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4727463847002555</v>
+        <v>0.4727359862252272</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.507647544156653</v>
+        <v>0.5054386880769336</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.481049503571069</v>
+        <v>0.4818239707015951</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.434368470993384</v>
+        <v>0.4330983577485537</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.46585206199032</v>
+        <v>0.4636465176845214</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5107006234538801</v>
+        <v>0.5130797292613403</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4991171015423748</v>
+        <v>0.496476285026166</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4538315075850982</v>
+        <v>0.4536803323591813</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5953929270966007</v>
+        <v>0.5969324280950163</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6119389141687641</v>
+        <v>0.6122675868791057</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5725483461715111</v>
+        <v>0.5718619974798835</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5178782406828708</v>
+        <v>0.5176398740497892</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5202631226409107</v>
+        <v>0.5203486001861598</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5520827673956543</v>
+        <v>0.551796914192317</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5261231310393883</v>
+        <v>0.5282213553765965</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4793482214966217</v>
+        <v>0.4769484115035211</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4268400618756666</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4021589315399457</v>
+        <v>0.4021589315399458</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5478887760751645</v>
@@ -969,7 +969,7 @@
         <v>0.4581862116680979</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4534833525517388</v>
+        <v>0.4534833525517389</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4008896546789125</v>
+        <v>0.3950085712331242</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4185988722869437</v>
+        <v>0.4158399711108822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3930773374286755</v>
+        <v>0.3912623260935863</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3645206706939782</v>
+        <v>0.3638833112415574</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5071412315619146</v>
+        <v>0.5113691899789844</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5533207645999877</v>
+        <v>0.55600812274963</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4512252999815711</v>
+        <v>0.4484480777947473</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4742751048013347</v>
+        <v>0.4698280358183927</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4652352804216215</v>
+        <v>0.4631177026805715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4947248931056628</v>
+        <v>0.4970147966320668</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4301413891614168</v>
+        <v>0.4328676057729479</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4252498406755241</v>
+        <v>0.4273655659357843</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4770321344353498</v>
+        <v>0.4766063518840851</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4942196156709614</v>
+        <v>0.4909081697445599</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4632340876493659</v>
+        <v>0.4693120829300978</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4407009635433512</v>
+        <v>0.4418022656884736</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5832569990186736</v>
+        <v>0.5853738988360867</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6269048291890535</v>
+        <v>0.629783798951347</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5248633350012024</v>
+        <v>0.5239434381923815</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5364202369106771</v>
+        <v>0.5345972194295638</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5183708330946272</v>
+        <v>0.5177788656428566</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5507195893676271</v>
+        <v>0.5526068739468581</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4853543869983938</v>
+        <v>0.4849391522601211</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4786754081101817</v>
+        <v>0.4770753701484638</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5402130664533863</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4544954633033915</v>
+        <v>0.4544954633033916</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5595172823109021</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4382557153262409</v>
+        <v>0.4360910272407457</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4939528257231075</v>
+        <v>0.4943562427305903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5111422309261006</v>
+        <v>0.5060627285973942</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4239428711925923</v>
+        <v>0.4222397352816566</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.526602903704228</v>
+        <v>0.5303973535877964</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6150747319650577</v>
+        <v>0.6128453517340062</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5598931162428045</v>
+        <v>0.5561207365698106</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5221683270015181</v>
+        <v>0.5251412561596884</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4932783172706901</v>
+        <v>0.4928026519879892</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5649352477236788</v>
+        <v>0.5652087452040105</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5439612566922282</v>
+        <v>0.5448787216526529</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4828798922846232</v>
+        <v>0.4849262376355771</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5003040329364357</v>
+        <v>0.5025299860221873</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5600605487691334</v>
+        <v>0.5580857716945884</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5731065087135063</v>
+        <v>0.5723839302112331</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4892698815162095</v>
+        <v>0.488861690682577</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5888983399841602</v>
+        <v>0.5906189050943063</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6735889014456492</v>
+        <v>0.6738197975593028</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6196546102301722</v>
+        <v>0.6209459556573077</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.575447105278827</v>
+        <v>0.5786621109343943</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5380976781276922</v>
+        <v>0.5362678296733735</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6094233625396241</v>
+        <v>0.6104921175437099</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5866234943882241</v>
+        <v>0.5891899009230057</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5263352023755822</v>
+        <v>0.5253996753704805</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.4815150355797339</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4184748211465575</v>
+        <v>0.4184748211465576</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5418144492936345</v>
@@ -1229,7 +1229,7 @@
         <v>0.5484084415923026</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5076364165484988</v>
+        <v>0.5076364165484987</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.487851131820891</v>
@@ -1241,7 +1241,7 @@
         <v>0.5156856892484182</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4642919476804128</v>
+        <v>0.4642919476804127</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.414692007002441</v>
+        <v>0.4157683260250113</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4727619155116248</v>
+        <v>0.4720079417561156</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4647076255515625</v>
+        <v>0.4626602087230561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4012554461106523</v>
+        <v>0.4007775378943373</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5247719197396368</v>
+        <v>0.5231049842803942</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.601905128453436</v>
+        <v>0.6006790568844488</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5316105152113435</v>
+        <v>0.5300729822659244</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.493183562784454</v>
+        <v>0.4923339000398586</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4761293522187702</v>
+        <v>0.4760762846735229</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5434508822586638</v>
+        <v>0.5428446471638374</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5034957511439434</v>
+        <v>0.5038563021554011</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4528728016253796</v>
+        <v>0.452450867742862</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4500762056060974</v>
+        <v>0.45049844778864</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5075103626492773</v>
+        <v>0.5077559641525569</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.500004738047739</v>
+        <v>0.4983040676580651</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4371058586141767</v>
+        <v>0.4360059590654434</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5589122367738513</v>
+        <v>0.5583703995645004</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6359387755816222</v>
+        <v>0.6346222743435425</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5656768869817007</v>
+        <v>0.5652430059532721</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.522854044632561</v>
+        <v>0.5214599813820711</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5007538817860366</v>
+        <v>0.5003090539878823</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5679803352596084</v>
+        <v>0.567826732978135</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5280568980529647</v>
+        <v>0.5267258262939751</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4763871265550031</v>
+        <v>0.4747944123894549</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>237717</v>
+        <v>237676</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>321792</v>
+        <v>319927</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>303522</v>
+        <v>302881</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>238506</v>
+        <v>239063</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>302225</v>
+        <v>303408</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>435020</v>
+        <v>437058</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>356298</v>
+        <v>354279</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>318744</v>
+        <v>320267</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>557744</v>
+        <v>556513</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>774518</v>
+        <v>774840</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>674130</v>
+        <v>675154</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>571107</v>
+        <v>570326</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>287236</v>
+        <v>288157</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>375105</v>
+        <v>376712</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>354725</v>
+        <v>355865</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>289782</v>
+        <v>290939</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>352863</v>
+        <v>352713</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>486492</v>
+        <v>487236</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>407695</v>
+        <v>403758</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>364869</v>
+        <v>364396</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>630755</v>
+        <v>629366</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>849867</v>
+        <v>850548</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>746343</v>
+        <v>750003</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>640614</v>
+        <v>641339</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>382154</v>
+        <v>381597</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>456105</v>
+        <v>457448</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>442833</v>
+        <v>440209</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>404586</v>
+        <v>401499</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>516612</v>
+        <v>515221</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>566628</v>
+        <v>566962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>530611</v>
+        <v>529874</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>494939</v>
+        <v>493459</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>912492</v>
+        <v>912472</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1040744</v>
+        <v>1036216</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>993533</v>
+        <v>995132</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>916058</v>
+        <v>913380</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>448057</v>
+        <v>445935</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>519866</v>
+        <v>522288</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>510313</v>
+        <v>507613</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>473723</v>
+        <v>473566</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>576574</v>
+        <v>578065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>631634</v>
+        <v>631973</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>597118</v>
+        <v>596402</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>551598</v>
+        <v>551344</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1004208</v>
+        <v>1004373</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1131842</v>
+        <v>1131256</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1086625</v>
+        <v>1090959</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1010918</v>
+        <v>1005857</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>272007</v>
+        <v>268017</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>317140</v>
+        <v>315050</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>298563</v>
+        <v>297184</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>291742</v>
+        <v>291232</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>346804</v>
+        <v>349695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>430027</v>
+        <v>432115</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>354217</v>
+        <v>352037</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>384354</v>
+        <v>380750</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>633813</v>
+        <v>630928</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>759302</v>
+        <v>762817</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>664380</v>
+        <v>668591</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>684971</v>
+        <v>688379</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>323671</v>
+        <v>323382</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>374432</v>
+        <v>371923</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>351850</v>
+        <v>356467</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>352713</v>
+        <v>353594</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>398855</v>
+        <v>400303</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>487214</v>
+        <v>489452</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>412023</v>
+        <v>411301</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>434717</v>
+        <v>433239</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>706203</v>
+        <v>705396</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>845243</v>
+        <v>848139</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>749660</v>
+        <v>749019</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>771026</v>
+        <v>768449</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>412934</v>
+        <v>410895</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>468138</v>
+        <v>468521</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>479230</v>
+        <v>474468</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>418073</v>
+        <v>416394</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>546936</v>
+        <v>550877</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>646998</v>
+        <v>644653</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>584405</v>
+        <v>580467</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>581216</v>
+        <v>584525</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>977102</v>
+        <v>976160</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1129667</v>
+        <v>1130214</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1077775</v>
+        <v>1079593</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1013679</v>
+        <v>1017975</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>471397</v>
+        <v>473495</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>530791</v>
+        <v>528920</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>537326</v>
+        <v>536648</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>482496</v>
+        <v>482093</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>611637</v>
+        <v>613424</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>708549</v>
+        <v>708792</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>646782</v>
+        <v>648130</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>640520</v>
+        <v>644098</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1065882</v>
+        <v>1062258</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1218627</v>
+        <v>1220764</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1162304</v>
+        <v>1167389</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1104902</v>
+        <v>1102938</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1358756</v>
+        <v>1362283</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1620051</v>
+        <v>1617467</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1577380</v>
+        <v>1570431</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1410454</v>
+        <v>1408774</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1773308</v>
+        <v>1767675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2141764</v>
+        <v>2137402</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1884316</v>
+        <v>1878866</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1832486</v>
+        <v>1829329</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3168994</v>
+        <v>3168640</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3796052</v>
+        <v>3791818</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3493703</v>
+        <v>3496204</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3274601</v>
+        <v>3271550</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1474694</v>
+        <v>1476078</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1739126</v>
+        <v>1739967</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1697191</v>
+        <v>1691418</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1536472</v>
+        <v>1532606</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1888675</v>
+        <v>1886844</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2262867</v>
+        <v>2258182</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2005065</v>
+        <v>2003528</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1942731</v>
+        <v>1937551</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3332888</v>
+        <v>3329927</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3967393</v>
+        <v>3966320</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3664130</v>
+        <v>3654894</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3444627</v>
+        <v>3433110</v>
       </c>
     </row>
     <row r="24">
